--- a/models/ctmc/epidemic/properties.xlsx
+++ b/models/ctmc/epidemic/properties.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Properties" sheetId="2" r:id="rId1"/>
-    <sheet name="Properties (2step)" sheetId="3" r:id="rId2"/>
+    <sheet name="Properties" sheetId="4" r:id="rId1"/>
+    <sheet name="Properties (test)" sheetId="2" r:id="rId2"/>
+    <sheet name="Properties (2step)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="202">
   <si>
     <t>property</t>
   </si>
@@ -337,7 +338,295 @@
     <t>Rel T=204</t>
   </si>
   <si>
-    <t>P=? [ (popI&gt;0) U[100,204] (popI=0) ]</t>
+    <t>Rel T=100</t>
+  </si>
+  <si>
+    <t>Rel T=56</t>
+  </si>
+  <si>
+    <t>Rel T=60</t>
+  </si>
+  <si>
+    <t>Rel T=64</t>
+  </si>
+  <si>
+    <t>Rel T=68</t>
+  </si>
+  <si>
+    <t>Rel T=72</t>
+  </si>
+  <si>
+    <t>Rel T=76</t>
+  </si>
+  <si>
+    <t>Rel T=80</t>
+  </si>
+  <si>
+    <t>Rel T=84</t>
+  </si>
+  <si>
+    <t>Rel T=88</t>
+  </si>
+  <si>
+    <t>Rel T=92</t>
+  </si>
+  <si>
+    <t>Rel T=96</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,104] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,108] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,112] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,116] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,120] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,124] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,128] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,132] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,136] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,140] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,144] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,148] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,152] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,156] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,160] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,164] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,168] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,172] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,176] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,180] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,184] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,188] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,192] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,196] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,200] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,204] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,56] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,60] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,64] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,68] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,72] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,76] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,80] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,84] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,88] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,92] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,96] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[52,100] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>Rel T=55</t>
+  </si>
+  <si>
+    <t>Rel T=65</t>
+  </si>
+  <si>
+    <t>Rel T=70</t>
+  </si>
+  <si>
+    <t>Rel T=75</t>
+  </si>
+  <si>
+    <t>Rel T=85</t>
+  </si>
+  <si>
+    <t>Rel T=90</t>
+  </si>
+  <si>
+    <t>Rel T=95</t>
+  </si>
+  <si>
+    <t>Rel T=105</t>
+  </si>
+  <si>
+    <t>Rel T=115</t>
+  </si>
+  <si>
+    <t>Rel T=125</t>
+  </si>
+  <si>
+    <t>Rel T=135</t>
+  </si>
+  <si>
+    <t>Rel T=145</t>
+  </si>
+  <si>
+    <t>Rel T=155</t>
+  </si>
+  <si>
+    <t>Rel T=165</t>
+  </si>
+  <si>
+    <t>Rel T=175</t>
+  </si>
+  <si>
+    <t>Rel T=185</t>
+  </si>
+  <si>
+    <t>Rel T=195</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,55] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,60] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,65] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,70] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,75] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,80] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,85] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,90] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,95] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,100] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,105] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,110] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,115] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,120] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,125] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,130] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,135] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,140] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,145] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,150] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,155] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,160] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,165] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,170] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,175] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,180] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,185] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,190] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,195] (popI=0) ]</t>
+  </si>
+  <si>
+    <t>P=? [ (popI&gt;0) U[50,200] (popI=0) ]</t>
   </si>
 </sst>
 </file>
@@ -655,10 +944,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8">
+        <v>85</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14">
+        <v>115</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17">
+        <v>130</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18">
+        <v>135</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19">
+        <v>140</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>145</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22">
+        <v>155</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>160</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24">
+        <v>165</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25">
+        <v>170</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26">
+        <v>175</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27">
+        <v>180</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <v>185</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29">
+        <v>190</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <v>195</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,13 +1424,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -697,13 +1438,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -711,13 +1452,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -725,13 +1466,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="C5">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -739,13 +1480,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -753,13 +1494,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -767,13 +1508,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -781,13 +1522,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -795,13 +1536,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="C10">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -809,13 +1550,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C11">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -823,13 +1564,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C12">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -837,13 +1578,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="C13">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -851,13 +1592,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C14">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -865,13 +1606,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C15">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -879,13 +1620,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -893,13 +1634,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -907,13 +1648,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C18">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -921,13 +1662,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -935,13 +1676,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C20">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -949,13 +1690,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -963,13 +1704,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C22">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -977,13 +1718,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C23">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -991,13 +1732,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C24">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1005,13 +1746,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C25">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1019,13 +1760,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1033,15 +1774,183 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27">
+        <v>156</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28">
+        <v>160</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29">
+        <v>164</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <v>168</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>172</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32">
+        <v>176</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34">
+        <v>184</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35">
+        <v>188</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36">
+        <v>192</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37">
+        <v>196</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27">
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39">
         <v>204</v>
       </c>
-      <c r="D27" t="b">
+      <c r="D39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1050,12 +1959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/models/ctmc/epidemic/properties.xlsx
+++ b/models/ctmc/epidemic/properties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
   <si>
     <t>property</t>
   </si>
@@ -338,295 +338,7 @@
     <t>Rel T=204</t>
   </si>
   <si>
-    <t>Rel T=100</t>
-  </si>
-  <si>
-    <t>Rel T=56</t>
-  </si>
-  <si>
-    <t>Rel T=60</t>
-  </si>
-  <si>
-    <t>Rel T=64</t>
-  </si>
-  <si>
-    <t>Rel T=68</t>
-  </si>
-  <si>
-    <t>Rel T=72</t>
-  </si>
-  <si>
-    <t>Rel T=76</t>
-  </si>
-  <si>
-    <t>Rel T=80</t>
-  </si>
-  <si>
-    <t>Rel T=84</t>
-  </si>
-  <si>
-    <t>Rel T=88</t>
-  </si>
-  <si>
-    <t>Rel T=92</t>
-  </si>
-  <si>
-    <t>Rel T=96</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,104] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,108] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,112] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,116] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,120] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,124] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,128] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,132] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,136] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,140] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,144] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,148] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,152] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,156] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,160] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,164] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,168] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,172] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,176] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,180] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,184] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,188] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,192] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,196] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,200] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,204] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,56] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,60] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,64] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,68] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,72] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,76] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,80] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,84] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,88] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,92] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,96] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[52,100] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>Rel T=55</t>
-  </si>
-  <si>
-    <t>Rel T=65</t>
-  </si>
-  <si>
-    <t>Rel T=70</t>
-  </si>
-  <si>
-    <t>Rel T=75</t>
-  </si>
-  <si>
-    <t>Rel T=85</t>
-  </si>
-  <si>
-    <t>Rel T=90</t>
-  </si>
-  <si>
-    <t>Rel T=95</t>
-  </si>
-  <si>
-    <t>Rel T=105</t>
-  </si>
-  <si>
-    <t>Rel T=115</t>
-  </si>
-  <si>
-    <t>Rel T=125</t>
-  </si>
-  <si>
-    <t>Rel T=135</t>
-  </si>
-  <si>
-    <t>Rel T=145</t>
-  </si>
-  <si>
-    <t>Rel T=155</t>
-  </si>
-  <si>
-    <t>Rel T=165</t>
-  </si>
-  <si>
-    <t>Rel T=175</t>
-  </si>
-  <si>
-    <t>Rel T=185</t>
-  </si>
-  <si>
-    <t>Rel T=195</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,55] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,60] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,65] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,70] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,75] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,80] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,85] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,90] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,95] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,100] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,105] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,110] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,115] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,120] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,125] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,130] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,135] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,140] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,145] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,150] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,155] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,160] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,165] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,170] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,175] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,180] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,185] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,190] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,195] (popI=0) ]</t>
-  </si>
-  <si>
-    <t>P=? [ (popI&gt;0) U[50,200] (popI=0) ]</t>
+    <t>P=? [ (popI&gt;0) U[100,204] (popI=0) ]</t>
   </si>
 </sst>
 </file>
@@ -944,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,13 +683,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -985,13 +697,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -999,13 +711,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1013,13 +725,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1027,13 +739,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1041,13 +753,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1055,13 +767,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1069,13 +781,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1083,13 +795,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1097,13 +809,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1111,13 +823,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1125,13 +837,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1139,13 +851,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1153,13 +865,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1167,13 +879,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1181,13 +893,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1195,13 +907,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1209,13 +921,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C19">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1223,13 +935,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1237,13 +949,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1251,13 +963,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1265,13 +977,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C23">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1279,13 +991,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="C24">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1293,13 +1005,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1307,13 +1019,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1321,71 +1033,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="C27">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28">
-        <v>185</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29">
-        <v>190</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30">
-        <v>195</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31">
-        <v>200</v>
-      </c>
-      <c r="D31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1396,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:D39"/>
+      <selection activeCell="B10" sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,13 +1080,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1438,13 +1094,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1452,13 +1108,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1466,13 +1122,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1480,13 +1136,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1494,13 +1150,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1508,13 +1164,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1522,13 +1178,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1536,13 +1192,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1550,13 +1206,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1564,13 +1220,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1578,13 +1234,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1592,13 +1248,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1606,13 +1262,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1620,13 +1276,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1634,13 +1290,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1648,13 +1304,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1662,13 +1318,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C19">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1676,13 +1332,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C20">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1690,13 +1346,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1704,13 +1360,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C22">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1718,13 +1374,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C23">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1732,13 +1388,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C24">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1746,13 +1402,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1760,13 +1416,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1774,183 +1430,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C27">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28">
-        <v>160</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29">
-        <v>164</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30">
-        <v>168</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31">
-        <v>172</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32">
-        <v>176</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33">
-        <v>180</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34">
-        <v>184</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35">
-        <v>188</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36">
-        <v>192</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37">
-        <v>196</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38">
-        <v>200</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39">
-        <v>204</v>
-      </c>
-      <c r="D39" t="b">
         <v>1</v>
       </c>
     </row>
